--- a/src/test/java/common/test_data/users/Users.xlsx
+++ b/src/test/java/common/test_data/users/Users.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -94,6 +94,78 @@
   </si>
   <si>
     <t>Jb5A9TYBiC</t>
+  </si>
+  <si>
+    <t>Test108084432229600</t>
+  </si>
+  <si>
+    <t>TestEmail108084432265500@gmail.com</t>
+  </si>
+  <si>
+    <t>DDcADqw58K</t>
+  </si>
+  <si>
+    <t>Test108119514360600</t>
+  </si>
+  <si>
+    <t>TestEmail108119514457900@gmail.com</t>
+  </si>
+  <si>
+    <t>CxtA3HJfz7</t>
+  </si>
+  <si>
+    <t>Test108905994221100</t>
+  </si>
+  <si>
+    <t>TestEmail108905994255000@gmail.com</t>
+  </si>
+  <si>
+    <t>tJpIVxF4HA</t>
+  </si>
+  <si>
+    <t>Test109000282344100</t>
+  </si>
+  <si>
+    <t>TestEmail109000282364500@gmail.com</t>
+  </si>
+  <si>
+    <t>JWJGMSmkgj</t>
+  </si>
+  <si>
+    <t>Test111729896256200</t>
+  </si>
+  <si>
+    <t>TestEmail111729896338000@gmail.com</t>
+  </si>
+  <si>
+    <t>392l73nG6l</t>
+  </si>
+  <si>
+    <t>Test111820556686400</t>
+  </si>
+  <si>
+    <t>TestEmail111820556705200@gmail.com</t>
+  </si>
+  <si>
+    <t>qL2kdBP7Oq</t>
+  </si>
+  <si>
+    <t>Test112624378668300</t>
+  </si>
+  <si>
+    <t>TestEmail112624378705300@gmail.com</t>
+  </si>
+  <si>
+    <t>VFeaB4WPKu</t>
+  </si>
+  <si>
+    <t>Test112739681189100</t>
+  </si>
+  <si>
+    <t>TestEmail112739681212200@gmail.com</t>
+  </si>
+  <si>
+    <t>hIX57FnFbQ</t>
   </si>
 </sst>
 </file>
@@ -459,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F8A7C7-837A-425F-9758-BEEBC1A7DFF8}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
@@ -560,6 +632,94 @@
         <v>19</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
